--- a/config/incontrol/commands.xlsx
+++ b/config/incontrol/commands.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Carli\AppData\Roaming\.minecraft\versions\modpack\config\incontrol\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7C398E86-8BCC-4D6D-969F-A719882F8270}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26A8917F-2E78-4CA9-8229-C24F8C2F817A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{C8C2C10C-558A-4A74-9544-C14F214DA6AA}"/>
+    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{C8C2C10C-558A-4A74-9544-C14F214DA6AA}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -524,9 +524,6 @@
     <t>minverticaldist / maxverticaldist</t>
   </si>
   <si>
-    <t>if specified you can use this to test for the vertical distance between the player and the position where the mob will spawn</t>
-  </si>
-  <si>
     <t>canspawnhere</t>
   </si>
   <si>
@@ -1476,6 +1473,9 @@
       </rPr>
       <t xml:space="preserve"> (NOT IMPLEMENTED YET IN 1.16)</t>
     </r>
+  </si>
+  <si>
+    <t>the minimum/maximum distance to the player for controlling the spawn. By default this is equal to 24/120area</t>
   </si>
 </sst>
 </file>
@@ -1854,8 +1854,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{139E37E0-540D-4D32-B64A-AE74868D1B8E}">
   <dimension ref="A1:M64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A45" workbookViewId="0">
-      <selection activeCell="E57" sqref="E57"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M28" sqref="M28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2648,12 +2649,12 @@
       <c r="K24" s="1"/>
       <c r="L24" s="1"/>
       <c r="M24" s="1" t="s">
-        <v>69</v>
+        <v>150</v>
       </c>
     </row>
     <row r="25" spans="1:13" ht="43.2">
       <c r="A25" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>30</v>
@@ -2671,12 +2672,12 @@
       <c r="K25" s="1"/>
       <c r="L25" s="1"/>
       <c r="M25" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="26" spans="1:13">
       <c r="A26" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>30</v>
@@ -2694,12 +2695,12 @@
       <c r="K26" s="1"/>
       <c r="L26" s="1"/>
       <c r="M26" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="27" spans="1:13" ht="28.8">
       <c r="A27" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>30</v>
@@ -2717,12 +2718,12 @@
       <c r="K27" s="1"/>
       <c r="L27" s="1"/>
       <c r="M27" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="28" spans="1:13" ht="43.2">
       <c r="A28" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>30</v>
@@ -2740,12 +2741,12 @@
       <c r="K28" s="1"/>
       <c r="L28" s="1"/>
       <c r="M28" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="29" spans="1:13">
       <c r="A29" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>21</v>
@@ -2779,12 +2780,12 @@
         <v>15</v>
       </c>
       <c r="M29" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="30" spans="1:13">
       <c r="A30" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>21</v>
@@ -2818,12 +2819,12 @@
         <v>15</v>
       </c>
       <c r="M30" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="31" spans="1:13" ht="43.2">
       <c r="A31" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B31" s="3" t="s">
         <v>14</v>
@@ -2857,12 +2858,12 @@
         <v>15</v>
       </c>
       <c r="M31" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="32" spans="1:13" ht="57.6">
       <c r="A32" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B32" s="3" t="s">
         <v>14</v>
@@ -2896,12 +2897,12 @@
         <v>15</v>
       </c>
       <c r="M32" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="33" spans="1:13">
       <c r="A33" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B33" s="3" t="s">
         <v>30</v>
@@ -2925,12 +2926,12 @@
       <c r="K33" s="1"/>
       <c r="L33" s="1"/>
       <c r="M33" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="34" spans="1:13">
       <c r="A34" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B34" s="3" t="s">
         <v>30</v>
@@ -2964,12 +2965,12 @@
         <v>15</v>
       </c>
       <c r="M34" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="35" spans="1:13" ht="28.8">
       <c r="A35" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B35" s="3" t="s">
         <v>30</v>
@@ -3003,12 +3004,12 @@
         <v>15</v>
       </c>
       <c r="M35" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="36" spans="1:13">
       <c r="A36" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B36" s="3" t="s">
         <v>30</v>
@@ -3028,12 +3029,12 @@
       <c r="K36" s="1"/>
       <c r="L36" s="1"/>
       <c r="M36" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="37" spans="1:13" ht="43.2">
       <c r="A37" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B37" s="3" t="s">
         <v>14</v>
@@ -3067,12 +3068,12 @@
         <v>15</v>
       </c>
       <c r="M37" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="38" spans="1:13" ht="43.2">
       <c r="A38" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B38" s="3" t="s">
         <v>14</v>
@@ -3106,12 +3107,12 @@
         <v>15</v>
       </c>
       <c r="M38" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="39" spans="1:13">
       <c r="A39" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B39" s="3" t="s">
         <v>30</v>
@@ -3145,12 +3146,12 @@
         <v>15</v>
       </c>
       <c r="M39" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="40" spans="1:13">
       <c r="A40" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B40" s="3" t="s">
         <v>14</v>
@@ -3174,12 +3175,12 @@
       <c r="K40" s="1"/>
       <c r="L40" s="1"/>
       <c r="M40" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="41" spans="1:13" ht="28.8">
       <c r="A41" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B41" s="3" t="s">
         <v>14</v>
@@ -3207,15 +3208,15 @@
       <c r="K41" s="1"/>
       <c r="L41" s="1"/>
       <c r="M41" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="42" spans="1:13" ht="26.4">
       <c r="A42" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B42" s="3" t="s">
         <v>104</v>
-      </c>
-      <c r="B42" s="3" t="s">
-        <v>105</v>
       </c>
       <c r="C42" s="1"/>
       <c r="D42" s="1" t="s">
@@ -3246,12 +3247,12 @@
         <v>15</v>
       </c>
       <c r="M42" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="43" spans="1:13" ht="72">
       <c r="A43" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B43" s="3" t="s">
         <v>18</v>
@@ -3285,12 +3286,12 @@
         <v>15</v>
       </c>
       <c r="M43" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="44" spans="1:13">
       <c r="A44" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B44" s="3" t="s">
         <v>14</v>
@@ -3324,12 +3325,12 @@
         <v>15</v>
       </c>
       <c r="M44" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="45" spans="1:13" ht="28.8">
       <c r="A45" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B45" s="3" t="s">
         <v>14</v>
@@ -3363,12 +3364,12 @@
         <v>15</v>
       </c>
       <c r="M45" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="46" spans="1:13">
       <c r="A46" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B46" s="3" t="s">
         <v>14</v>
@@ -3404,12 +3405,12 @@
         <v>15</v>
       </c>
       <c r="M46" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="47" spans="1:13" ht="28.8">
       <c r="A47" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B47" s="3" t="s">
         <v>14</v>
@@ -3443,12 +3444,12 @@
         <v>15</v>
       </c>
       <c r="M47" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="48" spans="1:13" ht="28.8">
       <c r="A48" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B48" s="3" t="s">
         <v>57</v>
@@ -3482,12 +3483,12 @@
         <v>15</v>
       </c>
       <c r="M48" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="49" spans="1:13" ht="28.8">
       <c r="A49" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B49" s="3" t="s">
         <v>30</v>
@@ -3507,12 +3508,12 @@
       <c r="K49" s="1"/>
       <c r="L49" s="1"/>
       <c r="M49" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="50" spans="1:13" ht="28.8">
       <c r="A50" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B50" s="3" t="s">
         <v>30</v>
@@ -3532,12 +3533,12 @@
       <c r="K50" s="1"/>
       <c r="L50" s="1"/>
       <c r="M50" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="51" spans="1:13" ht="28.8">
       <c r="A51" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B51" s="3" t="s">
         <v>14</v>
@@ -3557,15 +3558,15 @@
       <c r="K51" s="1"/>
       <c r="L51" s="1"/>
       <c r="M51" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="52" spans="1:13" ht="43.2">
       <c r="A52" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C52" s="1"/>
       <c r="D52" s="1" t="s">
@@ -3596,15 +3597,15 @@
         <v>15</v>
       </c>
       <c r="M52" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="53" spans="1:13" ht="28.8">
       <c r="A53" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
@@ -3627,15 +3628,15 @@
         <v>15</v>
       </c>
       <c r="M53" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="54" spans="1:13" ht="28.8">
       <c r="A54" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C54" s="1"/>
       <c r="D54" s="1" t="s">
@@ -3666,15 +3667,15 @@
         <v>15</v>
       </c>
       <c r="M54" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="55" spans="1:13" ht="43.2">
       <c r="A55" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
@@ -3697,12 +3698,12 @@
         <v>15</v>
       </c>
       <c r="M55" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="56" spans="1:13">
       <c r="A56" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B56" s="3" t="s">
         <v>14</v>
@@ -3722,12 +3723,12 @@
       <c r="K56" s="1"/>
       <c r="L56" s="1"/>
       <c r="M56" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="57" spans="1:13" ht="28.8">
       <c r="A57" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B57" s="3" t="s">
         <v>14</v>
@@ -3751,12 +3752,12 @@
       <c r="K57" s="1"/>
       <c r="L57" s="1"/>
       <c r="M57" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="58" spans="1:13">
       <c r="A58" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B58" s="3" t="s">
         <v>30</v>
@@ -3776,12 +3777,12 @@
       <c r="K58" s="1"/>
       <c r="L58" s="1"/>
       <c r="M58" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="59" spans="1:13" ht="28.8">
       <c r="A59" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B59" s="3" t="s">
         <v>30</v>
@@ -3815,12 +3816,12 @@
         <v>15</v>
       </c>
       <c r="M59" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="60" spans="1:13">
       <c r="A60" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B60" s="3" t="s">
         <v>14</v>
@@ -3854,12 +3855,12 @@
         <v>15</v>
       </c>
       <c r="M60" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="61" spans="1:13" ht="28.8">
       <c r="A61" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B61" s="3" t="s">
         <v>21</v>
@@ -3891,12 +3892,12 @@
         <v>15</v>
       </c>
       <c r="M61" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="62" spans="1:13" ht="28.8">
       <c r="A62" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B62" s="3" t="s">
         <v>30</v>
@@ -3930,15 +3931,15 @@
         <v>15</v>
       </c>
       <c r="M62" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="63" spans="1:13" ht="43.2">
       <c r="A63" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C63" s="1"/>
       <c r="D63" s="1" t="s">
@@ -3969,12 +3970,12 @@
         <v>15</v>
       </c>
       <c r="M63" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="64" spans="1:13" ht="28.8">
       <c r="A64" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B64" s="3" t="s">
         <v>21</v>
@@ -3994,7 +3995,7 @@
       <c r="K64" s="1"/>
       <c r="L64" s="1"/>
       <c r="M64" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
   </sheetData>
